--- a/biology/Médecine/Anomalies_acquises_de_l'intestin_grêle/Anomalies_acquises_de_l'intestin_grêle.xlsx
+++ b/biology/Médecine/Anomalies_acquises_de_l'intestin_grêle/Anomalies_acquises_de_l'intestin_grêle.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F7"/>
+  <dimension ref="A1:H7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Anomalies_acquises_de_l%27intestin_gr%C3%AAle</t>
+          <t>Anomalies_acquises_de_l'intestin_grêle</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Cet article liste les différentes anomalies acquises de l'intestin grêle, soit les différents problèmes physiologiques ou malformations innés de l'intestin grêle.
 </t>
@@ -493,7 +505,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Anomalies_acquises_de_l%27intestin_gr%C3%AAle</t>
+          <t>Anomalies_acquises_de_l'intestin_grêle</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -511,7 +523,9 @@
           <t>Anomalies de forme et de calibre du duodénum</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t>hyperplasie des glandes de Brünner
 mégaduodénum
@@ -525,7 +539,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Anomalies_acquises_de_l%27intestin_gr%C3%AAle</t>
+          <t>Anomalies_acquises_de_l'intestin_grêle</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -543,7 +557,9 @@
           <t>Diverticules</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t>du duodénum
 du grêle</t>
@@ -556,7 +572,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>Anomalies_acquises_de_l%27intestin_gr%C3%AAle</t>
+          <t>Anomalies_acquises_de_l'intestin_grêle</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
@@ -574,7 +590,9 @@
           <t>Occlusions du grêle</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t>iléus
 mécaniques
@@ -588,7 +606,7 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>Anomalies_acquises_de_l%27intestin_gr%C3%AAle</t>
+          <t>Anomalies_acquises_de_l'intestin_grêle</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
@@ -606,7 +624,9 @@
           <t>Troubles circulatoires de l'intestin grêle</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
         <is>
           <t>angor intestinal
 infarctus intestinal
@@ -638,7 +658,7 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>Anomalies_acquises_de_l%27intestin_gr%C3%AAle</t>
+          <t>Anomalies_acquises_de_l'intestin_grêle</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
@@ -656,7 +676,9 @@
           <t>Entérolithes</t>
         </is>
       </c>
-      <c r="F7" t="inlineStr">
+      <c r="F7" t="inlineStr"/>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
         <is>
           <t xml:space="preserve"> Portail de la médecine                     </t>
         </is>
